--- a/output/Func_annot_DAVID/GOA_BP_DAVID.xlsx
+++ b/output/Func_annot_DAVID/GOA_BP_DAVID.xlsx
@@ -1,69 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1306B67D-261F-3342-AAB8-9639A4C10CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC81E35-F57D-BD44-8854-F7753907603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{F8737BA1-EB70-DE4E-96BD-CECED992813E}"/>
+    <workbookView xWindow="680" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{AF17C613-29A7-EA49-97E8-F3F360BDE0C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GOA_BP_DAVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="GOA_BP_DAVID" localSheetId="0">Sheet1!$A$1:$M$40</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{E22D52B1-8618-C64B-86CB-330C6045B720}" name="GOA_BP_DAVID" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/graceleuchtenberger/Desktop/GOA_BP_DAVID">
-      <textFields count="13">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
   <si>
     <t>Category</t>
   </si>
@@ -101,18 +58,39 @@
     <t>Benjamini</t>
   </si>
   <si>
-    <t>FDR</t>
+    <t>FDR\</t>
   </si>
   <si>
     <t>GOTERM_BP_DIRECT</t>
   </si>
   <si>
+    <t>GO:0006397~mRNA processing</t>
+  </si>
+  <si>
+    <t>Q8VE97, Q15428, Q6NZ22, Q5R1W5, P11940, Q28DG8, O01159, Q24562, Q5NVM9, Q5ZML3, Q7ZV80, Q5RE03, Q4R979, Q5ZIQ3, Q07G43, Q5ZI03, Q5NVN8</t>
+  </si>
+  <si>
+    <t>1.0\</t>
+  </si>
+  <si>
     <t>GO:0001937~negative regulation of endothelial cell proliferation</t>
   </si>
   <si>
     <t>P51399, A5A6H5, Q2IBC1, Q07E25, Q07E02</t>
   </si>
   <si>
+    <t>GO:0030198~extracellular matrix organization</t>
+  </si>
+  <si>
+    <t>P70705, Q9JI03, P82198, A6H584, Q8NFW1, B4F785, A2AX52</t>
+  </si>
+  <si>
+    <t>GO:0008380~RNA splicing</t>
+  </si>
+  <si>
+    <t>Q8VE97, Q5R1W5, Q28DG8, O01159, Q24562, Q5NVM9, Q7ZV80, Q5RE03, Q4R979, Q5ZIQ3, Q07G43, Q5ZI03, Q5NVN8</t>
+  </si>
+  <si>
     <t>GO:0061099~negative regulation of protein tyrosine kinase activity</t>
   </si>
   <si>
@@ -125,79 +103,64 @@
     <t>Q2IBC1, Q07E25, Q01815</t>
   </si>
   <si>
+    <t>GO:1901799~negative regulation of proteasomal protein catabolic process</t>
+  </si>
+  <si>
+    <t>Q8BHL8, P60522</t>
+  </si>
+  <si>
+    <t>GO:0042335~cuticle development</t>
+  </si>
+  <si>
+    <t>Q11002, Q8CIY2, Q8HZK2</t>
+  </si>
+  <si>
+    <t>GO:0070836~caveola assembly</t>
+  </si>
+  <si>
+    <t>GO:0030212~hyaluronan metabolic process</t>
+  </si>
+  <si>
+    <t>P19823, Q9GLY5, Q14624</t>
+  </si>
+  <si>
+    <t>GO:0006805~xenobiotic metabolic process</t>
+  </si>
+  <si>
+    <t>P00186, P16152, P16435</t>
+  </si>
+  <si>
     <t>GO:0098869~cellular oxidant detoxification</t>
   </si>
   <si>
     <t>Q13423, P30044, Q8CIY2, P78417</t>
   </si>
   <si>
-    <t>GO:0008380~RNA splicing</t>
-  </si>
-  <si>
-    <t>Q8VE97, Q5R1W5, Q28DG8, O01159, Q24562, Q5NVM9, Q5ZML3, Q7ZV80, Q5RE03, Q4R979, Q5ZIQ3, Q07G43, Q5ZI03, Q5NVN8</t>
-  </si>
-  <si>
-    <t>GO:1901799~negative regulation of proteasomal protein catabolic process</t>
-  </si>
-  <si>
-    <t>Q8BHL8, P60522</t>
-  </si>
-  <si>
-    <t>GO:0042335~cuticle development</t>
-  </si>
-  <si>
-    <t>Q11002, Q8CIY2, Q8HZK2</t>
-  </si>
-  <si>
-    <t>GO:0070836~caveola assembly</t>
-  </si>
-  <si>
-    <t>GO:0042446~hormone biosynthetic process</t>
-  </si>
-  <si>
-    <t>P00186, Q8CIY2, Q8HZK2</t>
-  </si>
-  <si>
     <t>GO:0006457~protein folding</t>
   </si>
   <si>
     <t>Q8JG64, Q63081, Q5RAY0, Q99KV1, P28491, Q66HD0, P13667, Q5ZL72, P24367</t>
   </si>
   <si>
-    <t>GO:0006397~mRNA processing</t>
-  </si>
-  <si>
-    <t>Q8VE97, Q15428, Q5R1W5, P11940, Q28DG8, O01159, Q24562, Q5NVM9, Q5ZML3, Q7ZV80, Q4R979, Q5ZIQ3, Q07G43, Q5ZI03, Q5NVN8</t>
-  </si>
-  <si>
-    <t>GO:0060070~canonical Wnt signaling pathway</t>
-  </si>
-  <si>
-    <t>Q2IBC1, Q07E25, B1WAP7, Q9I9M5, O88572</t>
-  </si>
-  <si>
-    <t>GO:0030212~hyaluronan metabolic process</t>
-  </si>
-  <si>
-    <t>P19823, Q9GLY5, Q14624</t>
-  </si>
-  <si>
-    <t>GO:0030198~extracellular matrix organization</t>
-  </si>
-  <si>
-    <t>P70705, Q9JI03, P82198, Q8NFW1, B4F785, A2AX52</t>
-  </si>
-  <si>
-    <t>GO:0006805~xenobiotic metabolic process</t>
-  </si>
-  <si>
-    <t>P00186, P16152, P16435</t>
-  </si>
-  <si>
-    <t>GO:0001568~blood vessel development</t>
-  </si>
-  <si>
-    <t>P70705, Q9JI03, Q8N2E2, O35607</t>
+    <t>GO:0034453~microtubule anchoring</t>
+  </si>
+  <si>
+    <t>M9MRD1, E9Q309, Q8IWJ2</t>
+  </si>
+  <si>
+    <t>GO:0006809~nitric oxide biosynthetic process</t>
+  </si>
+  <si>
+    <t>Q2IBC1, Q07E25, P16435</t>
+  </si>
+  <si>
+    <t>GO:0042554~superoxide anion generation</t>
+  </si>
+  <si>
+    <t>O46522, Q8CIY2, Q8HZK2</t>
+  </si>
+  <si>
+    <t>GO:0031295~T cell costimulation</t>
   </si>
   <si>
     <t>GO:0097352~autophagosome maturation</t>
@@ -206,19 +169,22 @@
     <t>P60522, A5WUT8, P23787</t>
   </si>
   <si>
-    <t>GO:0042554~superoxide anion generation</t>
-  </si>
-  <si>
-    <t>O46522, Q8CIY2, Q8HZK2</t>
-  </si>
-  <si>
-    <t>GO:0031295~T cell costimulation</t>
-  </si>
-  <si>
-    <t>GO:0034453~microtubule anchoring</t>
-  </si>
-  <si>
-    <t>M9MRD1, E9Q309, Q8IWJ2</t>
+    <t>GO:0006814~sodium ion transport</t>
+  </si>
+  <si>
+    <t>B0JZG0, A8WHP3, Q27433, Q9UBI1</t>
+  </si>
+  <si>
+    <t>GO:0048172~regulation of short-term neuronal synaptic plasticity</t>
+  </si>
+  <si>
+    <t>Q9D5V6, P55200, P25228</t>
+  </si>
+  <si>
+    <t>GO:0042178~xenobiotic catabolic process</t>
+  </si>
+  <si>
+    <t>P00186, Q8R5I6, P78417</t>
   </si>
   <si>
     <t>GO:0042744~hydrogen peroxide catabolic process</t>
@@ -233,82 +199,49 @@
     <t>Q8JG64, Q2IBC1, Q07E25</t>
   </si>
   <si>
-    <t>GO:0048172~regulation of short-term neuronal synaptic plasticity</t>
-  </si>
-  <si>
-    <t>Q9D5V6, P55200, P25228</t>
-  </si>
-  <si>
-    <t>GO:0009952~anterior/posterior pattern specification</t>
-  </si>
-  <si>
-    <t>Q12830, P55200, Q8N2E2, O35607, O88572</t>
-  </si>
-  <si>
-    <t>GO:0070374~positive regulation of ERK1 and ERK2 cascade</t>
-  </si>
-  <si>
-    <t>Q3SZZ7, Q5XIH7, Q9H4G4, Q9CYL5, Q3UVU3</t>
-  </si>
-  <si>
-    <t>GO:0015986~proton motive force-driven ATP synthesis</t>
-  </si>
-  <si>
-    <t>A5A6H5, Q5RAP9, Q9DB20</t>
-  </si>
-  <si>
-    <t>GO:0007218~neuropeptide signaling pathway</t>
-  </si>
-  <si>
-    <t>P20481, Q6PHU5, F1R8P4</t>
-  </si>
-  <si>
     <t>GO:0051899~membrane depolarization</t>
   </si>
   <si>
     <t>Q2IBC1, P55200, Q07E25</t>
   </si>
   <si>
+    <t>GO:0010875~positive regulation of cholesterol efflux</t>
+  </si>
+  <si>
+    <t>O95477, Q2IBC1, Q07E25</t>
+  </si>
+  <si>
+    <t>GO:0086091~regulation of heart rate by cardiac conduction</t>
+  </si>
+  <si>
+    <t>GO:0090090~negative regulation of canonical Wnt signaling pathway</t>
+  </si>
+  <si>
+    <t>Q5RAY0, Q2IBC1, O46036, Q07E25, O75096</t>
+  </si>
+  <si>
+    <t>GO:0061077~chaperone-mediated protein folding</t>
+  </si>
+  <si>
+    <t>P45878, P13667, P24367</t>
+  </si>
+  <si>
+    <t>GO:0006952~defense response</t>
+  </si>
+  <si>
     <t>GO:0051480~regulation of cytosolic calcium ion concentration</t>
   </si>
   <si>
-    <t>GO:0042178~xenobiotic catabolic process</t>
-  </si>
-  <si>
-    <t>P00186, Q8R5I6, P78417</t>
-  </si>
-  <si>
-    <t>GO:0006814~sodium ion transport</t>
-  </si>
-  <si>
-    <t>B0JZG0, A8WHP3, Q27433, Q9UBI1</t>
-  </si>
-  <si>
-    <t>GO:0034220~monoatomic ion transmembrane transport</t>
-  </si>
-  <si>
-    <t>O46522, O01393, Q27433, Q01815, F1R8P4, Q9HCF6</t>
-  </si>
-  <si>
-    <t>GO:0010875~positive regulation of cholesterol efflux</t>
-  </si>
-  <si>
-    <t>O95477, Q2IBC1, Q07E25</t>
-  </si>
-  <si>
-    <t>GO:0086091~regulation of heart rate by cardiac conduction</t>
-  </si>
-  <si>
-    <t>GO:0030970~retrograde protein transport, ER to cytosol</t>
-  </si>
-  <si>
-    <t>Q13438, Q66HD0, P23787</t>
-  </si>
-  <si>
-    <t>GO:0061077~chaperone-mediated protein folding</t>
-  </si>
-  <si>
-    <t>P45878, P13667, P24367</t>
+    <t>GO:0071300~cellular response to retinoic acid</t>
+  </si>
+  <si>
+    <t>O95477, P30051, Q5XIH7</t>
+  </si>
+  <si>
+    <t>GO:0006622~protein targeting to lysosome</t>
+  </si>
+  <si>
+    <t>Q5R6Q7, Q6PHU5, Q8IWJ2</t>
   </si>
   <si>
     <t>GO:0007595~lactation</t>
@@ -317,23 +250,20 @@
     <t>P70705, Q2IBC1, Q07E25</t>
   </si>
   <si>
-    <t>GO:0006622~protein targeting to lysosome</t>
-  </si>
-  <si>
-    <t>Q5R6Q7, Q6PHU5, Q8IWJ2</t>
-  </si>
-  <si>
-    <t>GO:0006811~monoatomic ion transport</t>
-  </si>
-  <si>
-    <t>A8WHP3, Q80ZD3, O01393, Q27433, Q01815, F1R8P4, Q3UVU3, Q9DB20</t>
+    <t>GO:0070527~platelet aggregation</t>
+  </si>
+  <si>
+    <t>Q8JG64, Q63081, Q3SZZ7</t>
+  </si>
+  <si>
+    <t>1.0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,16 +271,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -358,15 +588,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,10 +798,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GOA_BP_DAVID" connectionId="1" xr16:uid="{C47D7EC2-86EB-5541-9C6F-D470208BDDE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,25 +1116,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F85BBFB-45C2-E449-925C-3E68AFF9541D}">
-  <dimension ref="A1:M40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFB3A84-D045-DF4F-945F-DB9E0DA817C6}">
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -771,37 +1177,37 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>1.5197568389057701</v>
+        <v>5.4711246200607899</v>
       </c>
       <c r="E2">
-        <v>5.5128727210995701E-3</v>
+        <v>1.35115352190982E-3</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="I2">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J2">
-        <v>6.5558441558441496</v>
+        <v>2.3621714643304101</v>
       </c>
       <c r="K2">
-        <v>0.99962914157581295</v>
+        <v>0.85318519111921798</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>1</v>
+      <c r="M2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -809,40 +1215,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>0.91185410334346495</v>
+        <v>1.5197568389057701</v>
       </c>
       <c r="E3">
-        <v>8.4915633634835806E-3</v>
+        <v>5.3564297613705701E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I3">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J3">
-        <v>18.3563636363636</v>
+        <v>6.6084558823529402</v>
       </c>
       <c r="K3">
-        <v>0.99999489993755797</v>
+        <v>0.99951004809384303</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1</v>
+      <c r="M3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -850,40 +1256,40 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>0.91185410334346495</v>
+        <v>2.1276595744680802</v>
       </c>
       <c r="E4">
-        <v>8.4915633634835806E-3</v>
+        <v>7.4576641279506597E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="I4">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J4">
-        <v>18.3563636363636</v>
+        <v>3.9250222816399201</v>
       </c>
       <c r="K4">
-        <v>0.99999489993755797</v>
+        <v>0.99997562817425301</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>1</v>
+      <c r="M4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -891,40 +1297,40 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>1.21580547112462</v>
+        <v>4.2553191489361701</v>
       </c>
       <c r="E5">
-        <v>1.040497733336E-2</v>
+        <v>7.7986882749554003E-3</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="I5">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J5">
-        <v>8.1583838383838305</v>
+        <v>2.2723813209494299</v>
       </c>
       <c r="K5">
-        <v>0.99999967732096895</v>
+        <v>0.99998503379345205</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5">
-        <v>1</v>
+      <c r="M5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -932,40 +1338,40 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>4.5592705167173202</v>
+        <v>0.91185410334346495</v>
       </c>
       <c r="E6">
-        <v>1.32618998518151E-2</v>
+        <v>8.3584044982065592E-3</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H6">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J6">
-        <v>2.0548168249660699</v>
+        <v>18.5036764705882</v>
       </c>
       <c r="K6">
-        <v>0.99999999481782897</v>
+        <v>0.999993279995116</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>1</v>
+      <c r="M6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -973,7 +1379,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -982,31 +1388,31 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E7">
-        <v>1.63755748053405E-2</v>
+        <v>8.3584044982065592E-3</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J7">
-        <v>13.767272727272699</v>
+        <v>18.5036764705882</v>
       </c>
       <c r="K7">
-        <v>0.99999999994336597</v>
+        <v>0.999993279995116</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>1</v>
+      <c r="M7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1014,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1023,31 +1429,31 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E8">
-        <v>1.63755748053405E-2</v>
+        <v>1.6123593255433499E-2</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J8">
-        <v>13.767272727272699</v>
+        <v>13.877757352941099</v>
       </c>
       <c r="K8">
-        <v>0.99999999994336597</v>
+        <v>0.99999999990391897</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>1</v>
+      <c r="M8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1055,7 +1461,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1064,31 +1470,31 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E9">
-        <v>1.63755748053405E-2</v>
+        <v>1.6123593255433499E-2</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
       <c r="I9">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J9">
-        <v>13.767272727272699</v>
+        <v>13.877757352941099</v>
       </c>
       <c r="K9">
-        <v>0.99999999994336597</v>
+        <v>0.99999999990391897</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9">
-        <v>1</v>
+      <c r="M9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1096,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1105,31 +1511,31 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E10">
-        <v>1.63755748053405E-2</v>
+        <v>2.59233674940898E-2</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J10">
-        <v>13.767272727272699</v>
+        <v>11.1022058823529</v>
       </c>
       <c r="K10">
-        <v>0.99999999994336597</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>1</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1137,40 +1543,40 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2.7355623100303901</v>
+        <v>0.91185410334346495</v>
       </c>
       <c r="E11">
-        <v>2.32806890046083E-2</v>
+        <v>2.59233674940898E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H11">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J11">
-        <v>2.54165034965034</v>
+        <v>11.1022058823529</v>
       </c>
       <c r="K11">
-        <v>0.999999999999997</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>1</v>
+      <c r="M11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1178,40 +1584,40 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>4.86322188449848</v>
+        <v>1.21580547112462</v>
       </c>
       <c r="E12">
-        <v>2.3627413945787101E-2</v>
+        <v>2.9533146211176801E-2</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H12">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="I12">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J12">
-        <v>1.85887226697353</v>
+        <v>5.6934389140271398</v>
       </c>
       <c r="K12">
-        <v>0.999999999999998</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12">
-        <v>1</v>
+      <c r="M12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1219,40 +1625,40 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>1.5197568389057701</v>
+        <v>1.21580547112462</v>
       </c>
       <c r="E13">
-        <v>2.44439593847946E-2</v>
+        <v>2.9533146211176801E-2</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I13">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J13">
-        <v>4.3705627705627696</v>
+        <v>5.6934389140271398</v>
       </c>
       <c r="K13">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13">
-        <v>1</v>
+      <c r="M13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1260,31 +1666,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>0.91185410334346495</v>
+        <v>2.7355623100303901</v>
       </c>
       <c r="E14">
-        <v>2.6320724845369299E-2</v>
+        <v>3.31600775199083E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I14">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J14">
-        <v>11.013818181818101</v>
+        <v>2.3790441176470498</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1292,8 +1698,8 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14">
-        <v>1</v>
+      <c r="M14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1301,31 +1707,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0.91185410334346495</v>
+      </c>
+      <c r="E15">
+        <v>3.7517720517580198E-2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>272</v>
+      </c>
+      <c r="H15">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>1.8237082066869299</v>
-      </c>
-      <c r="E15">
-        <v>2.74138526369219E-2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15">
-        <v>275</v>
-      </c>
-      <c r="H15">
-        <v>32</v>
-      </c>
       <c r="I15">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J15">
-        <v>3.4418181818181801</v>
+        <v>9.2518382352941106</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1333,8 +1739,8 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15">
-        <v>1</v>
+      <c r="M15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1342,31 +1748,31 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>1.21580547112462</v>
+        <v>0.91185410334346495</v>
       </c>
       <c r="E16">
-        <v>3.0156962702651498E-2</v>
+        <v>3.7517720517580198E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J16">
-        <v>5.6481118881118801</v>
+        <v>9.2518382352941106</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1374,8 +1780,8 @@
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16">
-        <v>1</v>
+      <c r="M16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1383,31 +1789,31 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1.21580547112462</v>
+        <v>0.91185410334346495</v>
       </c>
       <c r="E17">
-        <v>3.68780781520738E-2</v>
+        <v>3.7517720517580198E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J17">
-        <v>5.2446753246753204</v>
+        <v>9.2518382352941106</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1415,8 +1821,8 @@
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>1</v>
+      <c r="M17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1424,31 +1830,31 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1.21580547112462</v>
+        <v>0.91185410334346495</v>
       </c>
       <c r="E18">
-        <v>3.68780781520738E-2</v>
+        <v>3.7517720517580198E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G18">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J18">
-        <v>5.2446753246753204</v>
+        <v>9.2518382352941106</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1456,8 +1862,8 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18">
-        <v>1</v>
+      <c r="M18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1468,28 +1874,28 @@
         <v>47</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>0.91185410334346495</v>
+        <v>1.21580547112462</v>
       </c>
       <c r="E19">
-        <v>3.8081658525627601E-2</v>
+        <v>4.3408625735991503E-2</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
       </c>
       <c r="G19">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I19">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J19">
-        <v>9.1781818181818107</v>
+        <v>4.9343137254901901</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1497,8 +1903,8 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19">
-        <v>1</v>
+      <c r="M19" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1509,28 +1915,28 @@
         <v>49</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>0.91185410334346495</v>
+        <v>1.21580547112462</v>
       </c>
       <c r="E20">
-        <v>3.8081658525627601E-2</v>
+        <v>4.3408625735991503E-2</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G20">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I20">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J20">
-        <v>9.1781818181818107</v>
+        <v>4.9343137254901901</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1538,8 +1944,8 @@
       <c r="L20">
         <v>1</v>
       </c>
-      <c r="M20">
-        <v>1</v>
+      <c r="M20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1547,7 +1953,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1556,22 +1962,22 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E21">
-        <v>3.8081658525627601E-2</v>
+        <v>5.06864330742747E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J21">
-        <v>9.1781818181818107</v>
+        <v>7.9301470588235299</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1579,8 +1985,8 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="M21">
-        <v>1</v>
+      <c r="M21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1588,7 +1994,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1597,22 +2003,22 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E22">
-        <v>5.1433420601964402E-2</v>
+        <v>5.06864330742747E-2</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H22">
         <v>7</v>
       </c>
       <c r="I22">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J22">
-        <v>7.8670129870129797</v>
+        <v>7.9301470588235299</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1620,8 +2026,8 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22">
-        <v>1</v>
+      <c r="M22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1629,7 +2035,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1638,22 +2044,22 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E23">
-        <v>5.1433420601964402E-2</v>
+        <v>5.06864330742747E-2</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H23">
         <v>7</v>
       </c>
       <c r="I23">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J23">
-        <v>7.8670129870129797</v>
+        <v>7.9301470588235299</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1661,8 +2067,8 @@
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="M23">
-        <v>1</v>
+      <c r="M23" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1670,7 +2076,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1679,22 +2085,22 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E24">
-        <v>5.1433420601964402E-2</v>
+        <v>6.5227650723340899E-2</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G24">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J24">
-        <v>7.8670129870129797</v>
+        <v>6.9388786764705799</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1702,8 +2108,8 @@
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24">
-        <v>1</v>
+      <c r="M24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1711,31 +2117,31 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>1.5197568389057701</v>
+        <v>0.91185410334346495</v>
       </c>
       <c r="E25">
-        <v>5.5669765426055097E-2</v>
+        <v>6.5227650723340899E-2</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J25">
-        <v>3.39932659932659</v>
+        <v>6.9388786764705799</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1743,8 +2149,8 @@
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="M25">
-        <v>1</v>
+      <c r="M25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1752,31 +2158,31 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>1.5197568389057701</v>
+        <v>0.91185410334346495</v>
       </c>
       <c r="E26">
-        <v>6.22895518930165E-2</v>
+        <v>8.0956556170577898E-2</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G26">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I26">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J26">
-        <v>3.2779220779220699</v>
+        <v>6.1678921568627398</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1784,8 +2190,8 @@
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26">
-        <v>1</v>
+      <c r="M26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1793,7 +2199,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1802,22 +2208,22 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E27">
-        <v>6.6169976622296497E-2</v>
+        <v>8.0956556170577898E-2</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="G27">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I27">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J27">
-        <v>6.8836363636363602</v>
+        <v>6.1678921568627398</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1825,8 +2231,8 @@
       <c r="L27">
         <v>1</v>
       </c>
-      <c r="M27">
-        <v>1</v>
+      <c r="M27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1837,28 +2243,28 @@
         <v>64</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>0.91185410334346495</v>
+        <v>1.5197568389057701</v>
       </c>
       <c r="E28">
-        <v>6.6169976622296497E-2</v>
+        <v>8.2566444484123494E-2</v>
       </c>
       <c r="F28" t="s">
         <v>65</v>
       </c>
       <c r="G28">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I28">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J28">
-        <v>6.8836363636363602</v>
+        <v>2.9844639468690701</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -1866,8 +2272,8 @@
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="M28">
-        <v>1</v>
+      <c r="M28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -1878,28 +2284,28 @@
         <v>66</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>0.91185410334346495</v>
+        <v>1.21580547112462</v>
       </c>
       <c r="E29">
-        <v>6.6169976622296497E-2</v>
+        <v>8.9423597388303105E-2</v>
       </c>
       <c r="F29" t="s">
         <v>67</v>
       </c>
       <c r="G29">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I29">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J29">
-        <v>6.8836363636363602</v>
+        <v>3.7007352941176399</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -1907,8 +2313,8 @@
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="M29">
-        <v>1</v>
+      <c r="M29" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -1925,22 +2331,22 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E30">
-        <v>6.6169976622296497E-2</v>
+        <v>9.7704130530111899E-2</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G30">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J30">
-        <v>6.8836363636363602</v>
+        <v>5.5511029411764703</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -1948,8 +2354,8 @@
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="M30">
-        <v>1</v>
+      <c r="M30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1966,22 +2372,22 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E31">
-        <v>6.6169976622296497E-2</v>
+        <v>9.7704130530111899E-2</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="G31">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I31">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J31">
-        <v>6.8836363636363602</v>
+        <v>5.5511029411764703</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -1989,8 +2395,8 @@
       <c r="L31">
         <v>1</v>
       </c>
-      <c r="M31">
-        <v>1</v>
+      <c r="M31" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -1998,31 +2404,31 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0.91185410334346495</v>
+      </c>
+      <c r="E32">
+        <v>9.7704130530111899E-2</v>
+      </c>
+      <c r="F32" t="s">
         <v>71</v>
       </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>1.21580547112462</v>
-      </c>
-      <c r="E32">
-        <v>7.0546404229307497E-2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>72</v>
-      </c>
       <c r="G32">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H32">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I32">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J32">
-        <v>4.0791919191919099</v>
+        <v>5.5511029411764703</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2030,8 +2436,8 @@
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="M32">
-        <v>1</v>
+      <c r="M32" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2039,31 +2445,31 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>0.91185410334346495</v>
+      </c>
+      <c r="E33">
+        <v>9.7704130530111899E-2</v>
+      </c>
+      <c r="F33" t="s">
         <v>73</v>
       </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>1.8237082066869299</v>
-      </c>
-      <c r="E33">
-        <v>8.1290883573386902E-2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>74</v>
-      </c>
       <c r="G33">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H33">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J33">
-        <v>2.5613530655391101</v>
+        <v>5.5511029411764703</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2071,8 +2477,8 @@
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33">
-        <v>1</v>
+      <c r="M33" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2080,7 +2486,7 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2089,22 +2495,22 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E34">
-        <v>8.2102833561669003E-2</v>
+        <v>9.7704130530111899E-2</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I34">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J34">
-        <v>6.1187878787878702</v>
+        <v>5.5511029411764703</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2112,8 +2518,8 @@
       <c r="L34">
         <v>1</v>
       </c>
-      <c r="M34">
-        <v>1</v>
+      <c r="M34" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -2121,7 +2527,7 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -2130,22 +2536,22 @@
         <v>0.91185410334346495</v>
       </c>
       <c r="E35">
-        <v>8.2102833561669003E-2</v>
+        <v>9.7704130530111899E-2</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G35">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I35">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J35">
-        <v>6.1187878787878702</v>
+        <v>5.5511029411764703</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2153,216 +2559,11 @@
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="M35" t="s">
         <v>78</v>
       </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>0.91185410334346495</v>
-      </c>
-      <c r="E36">
-        <v>8.2102833561669003E-2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36">
-        <v>275</v>
-      </c>
-      <c r="H36">
-        <v>9</v>
-      </c>
-      <c r="I36">
-        <v>5048</v>
-      </c>
-      <c r="J36">
-        <v>6.1187878787878702</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>1.21580547112462</v>
-      </c>
-      <c r="E37">
-        <v>9.1112358037448493E-2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37">
-        <v>275</v>
-      </c>
-      <c r="H37">
-        <v>20</v>
-      </c>
-      <c r="I37">
-        <v>5048</v>
-      </c>
-      <c r="J37">
-        <v>3.6712727272727199</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>0.91185410334346495</v>
-      </c>
-      <c r="E38">
-        <v>9.9059753616748E-2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38">
-        <v>275</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <v>5048</v>
-      </c>
-      <c r="J38">
-        <v>5.5069090909090903</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>0.91185410334346495</v>
-      </c>
-      <c r="E39">
-        <v>9.9059753616748E-2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39">
-        <v>275</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
-      </c>
-      <c r="I39">
-        <v>5048</v>
-      </c>
-      <c r="J39">
-        <v>5.5069090909090903</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>2.43161094224924</v>
-      </c>
-      <c r="E40">
-        <v>9.9396080881010193E-2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40">
-        <v>275</v>
-      </c>
-      <c r="H40">
-        <v>73</v>
-      </c>
-      <c r="I40">
-        <v>5048</v>
-      </c>
-      <c r="J40">
-        <v>2.0116562889165599</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>